--- a/API接口测试/day4/api接口框架/data/cases2.xlsx
+++ b/API接口测试/day4/api接口框架/data/cases2.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="add" sheetId="4" r:id="rId4"/>
-    <sheet name="invest_v3" sheetId="5" r:id="rId5"/>
-    <sheet name="invest" sheetId="8" r:id="rId6"/>
-    <sheet name="audit" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="withdraw" sheetId="9" r:id="rId4"/>
+    <sheet name="add" sheetId="4" r:id="rId5"/>
+    <sheet name="invest_v3" sheetId="5" r:id="rId6"/>
+    <sheet name="invest" sheetId="8" r:id="rId7"/>
+    <sheet name="audit" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="161">
   <si>
     <t>case_id</t>
   </si>
@@ -327,6 +328,39 @@
   </si>
   <si>
     <t>{"code": 0, "msg": "OK"}</t>
+  </si>
+  <si>
+    <t>取现</t>
+  </si>
+  <si>
+    <t>取零</t>
+  </si>
+  <si>
+    <t>/member/withdraw</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","amount":0}</t>
+  </si>
+  <si>
+    <t>{
+ "code": 0,
+ "msg": "OK"
+}</t>
+  </si>
+  <si>
+    <t>取正确值</t>
+  </si>
+  <si>
+    <t>取负数</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","amount":-5}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "余额必须大于0并且小于或者等于5000000"
+}</t>
   </si>
   <si>
     <t>[["$..token", "token"],["$..id", "member_id"] ]</t>
@@ -596,8 +630,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -645,8 +679,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,30 +695,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,10 +718,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,21 +757,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -761,7 +773,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,13 +816,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,13 +852,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,19 +954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,67 +972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,49 +990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,17 +1040,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1037,15 +1060,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,155 +1102,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1244,6 +1278,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1847,7 +1899,7 @@
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2057,7 +2109,7 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -2093,7 +2145,7 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2129,7 +2181,7 @@
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2165,7 +2217,7 @@
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -2201,7 +2253,7 @@
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -2237,7 +2289,7 @@
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="10" t="s">
         <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -2273,7 +2325,7 @@
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="10" t="s">
         <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -2309,7 +2361,7 @@
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="10" t="s">
         <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2345,7 +2397,7 @@
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="10" t="s">
         <v>73</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -2380,8 +2432,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2617,16 +2669,152 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="7" max="7" width="76.75" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
+    <col min="9" max="9" width="30.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="54" spans="1:8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="54" spans="1:8">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="67.5" spans="1:8">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="3" max="3" width="11.1083333333333" customWidth="1"/>
-    <col min="5" max="5" width="9.55833333333333" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
     <col min="6" max="6" width="69.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="71.225" customWidth="1"/>
     <col min="8" max="8" width="35.1083333333333" customWidth="1"/>
@@ -2688,7 +2876,7 @@
         <v>75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2696,25 +2884,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:8">
@@ -2722,25 +2910,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:8">
@@ -2748,25 +2936,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2774,7 +2962,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>89</v>
@@ -2783,7 +2971,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>90</v>
@@ -2792,7 +2980,7 @@
         <v>81</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2800,7 +2988,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>91</v>
@@ -2809,7 +2997,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>92</v>
@@ -2826,7 +3014,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>71</v>
@@ -2835,10 +3023,10 @@
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>81</v>
@@ -2862,7 +3050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J10"/>
@@ -2923,7 +3111,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>46</v>
@@ -2932,19 +3120,19 @@
         <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2955,7 +3143,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>46</v>
@@ -2964,19 +3152,19 @@
         <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
@@ -2987,7 +3175,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>46</v>
@@ -2996,19 +3184,19 @@
         <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3016,31 +3204,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3048,28 +3236,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3077,28 +3265,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3106,28 +3294,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3135,28 +3323,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3164,7 +3352,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>71</v>
@@ -3173,19 +3361,19 @@
         <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3202,7 +3390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J10"/>
@@ -3263,7 +3451,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>46</v>
@@ -3272,19 +3460,19 @@
         <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3295,7 +3483,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>46</v>
@@ -3304,19 +3492,19 @@
         <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
@@ -3327,7 +3515,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>46</v>
@@ -3336,19 +3524,19 @@
         <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3356,31 +3544,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3388,28 +3576,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3417,28 +3605,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3446,28 +3634,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3475,28 +3663,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3504,7 +3692,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>71</v>
@@ -3513,19 +3701,19 @@
         <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -3595,25 +3783,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3625,7 +3813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/API接口测试/day4/api接口框架/data/cases2.xlsx
+++ b/API接口测试/day4/api接口框架/data/cases2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,18 @@
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
     <sheet name="withdraw" sheetId="9" r:id="rId4"/>
     <sheet name="add" sheetId="4" r:id="rId5"/>
-    <sheet name="invest_v3" sheetId="5" r:id="rId6"/>
-    <sheet name="invest" sheetId="8" r:id="rId7"/>
-    <sheet name="audit" sheetId="6" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
+    <sheet name="add1" sheetId="10" r:id="rId6"/>
+    <sheet name="invest_v3" sheetId="5" r:id="rId7"/>
+    <sheet name="invest" sheetId="8" r:id="rId8"/>
+    <sheet name="audit" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="166">
   <si>
     <t>case_id</t>
   </si>
@@ -363,9 +364,6 @@
 }</t>
   </si>
   <si>
-    <t>[["$..token", "token"],["$..id", "member_id"] ]</t>
-  </si>
-  <si>
     <t>添加</t>
   </si>
   <si>
@@ -378,6 +376,12 @@
     <t>{"member_id":"#member_id#","title":"", "amount":10000, "loan_rate":18, "loan_term":4, "loan_date_type": 1, "bidding_days":10}</t>
   </si>
   <si>
+    <t>{
+    "code": 1,
+    "msg": "标题为空"
+}</t>
+  </si>
+  <si>
     <t>[["$..msg", "assertEqual", "标题为空"]]</t>
   </si>
   <si>
@@ -385,6 +389,12 @@
   </si>
   <si>
     <t>{"member_id":"","title":"测试", "amount":10000, "loan_rate":18, "loan_term":4, "loan_date_type": 1, "bidding_days":10}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 1,
+    "msg": "用户id为空"
+}</t>
   </si>
   <si>
     <r>
@@ -417,6 +427,44 @@
   </si>
   <si>
     <t>借款金额错误</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","title":"测试", "amount":10, "loan_rate":18, "loan_term":4, "loan_date_type": 1, "bidding_days":10}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "借款金额范围错误"
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>[["$..msg", "assertEqual", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF09885A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>借款金额范围错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"]]</t>
+    </r>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","amount":100, "title": "小目标", "loan_rate": 18, "loan_term": 5, "loan_date_type": 1, "bidding_days": 1}</t>
+  </si>
+  <si>
+    <t>[["$..token", "token"],["$..id", "member_id"] ]</t>
   </si>
   <si>
     <r>
@@ -495,9 +543,6 @@
     </r>
   </si>
   <si>
-    <t>{"member_id":"#member_id#","amount":100, "title": "小目标", "loan_rate": 18, "loan_term": 5, "loan_date_type": 1, "bidding_days": 1}</t>
-  </si>
-  <si>
     <t>投资人登录</t>
   </si>
   <si>
@@ -630,8 +675,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -679,9 +724,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,34 +746,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -740,11 +769,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,8 +786,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,13 +846,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF09885A"/>
       <name val="宋体"/>
@@ -816,7 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,7 +873,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,115 +1005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,37 +1023,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,10 +1173,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1143,134 +1188,134 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1278,6 +1323,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1899,7 +1956,7 @@
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2023,6 +2080,22 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2109,7 +2182,7 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="14" t="s">
         <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -2145,7 +2218,7 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="14" t="s">
         <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2181,7 +2254,7 @@
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="14" t="s">
         <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2217,7 +2290,7 @@
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="14" t="s">
         <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -2253,7 +2326,7 @@
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="14" t="s">
         <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -2289,7 +2362,7 @@
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="14" t="s">
         <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -2325,7 +2398,7 @@
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="14" t="s">
         <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -2361,7 +2434,7 @@
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="14" t="s">
         <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2397,7 +2470,7 @@
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="14" t="s">
         <v>73</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -2671,7 +2744,7 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2718,81 +2791,81 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="54" spans="1:8">
-      <c r="A2" s="4">
+    <row r="2" s="8" customFormat="1" ht="54" spans="1:8">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="54" spans="1:8">
-      <c r="A3" s="5">
+    <row r="3" s="9" customFormat="1" ht="54" spans="1:8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="67.5" spans="1:8">
-      <c r="A4" s="5">
+    <row r="4" s="9" customFormat="1" ht="67.5" spans="1:8">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2805,10 +2878,194 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="8.89166666666667" style="4"/>
+    <col min="2" max="2" width="11" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.1083333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.89166666666667" style="4"/>
+    <col min="5" max="5" width="11.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="46.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="58" style="4" customWidth="1"/>
+    <col min="8" max="8" width="71.225" style="4" customWidth="1"/>
+    <col min="9" max="9" width="35.1083333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="40.1083333333333" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.89166666666667" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:9">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:9">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" ht="62" customHeight="1" spans="1:9">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" ht="93" customHeight="1" spans="1:9">
+      <c r="A5" s="5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="/loan/add"/>
+    <hyperlink ref="E3" r:id="rId1" display="/loan/add"/>
+    <hyperlink ref="E4" r:id="rId1" display="/loan/add"/>
+    <hyperlink ref="E5" r:id="rId1" display="/loan/add"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -2876,7 +3133,7 @@
         <v>75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2884,19 +3141,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>81</v>
@@ -2910,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>112</v>
@@ -2919,7 +3176,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>113</v>
@@ -2928,7 +3185,7 @@
         <v>81</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:8">
@@ -2936,16 +3193,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>113</v>
@@ -2954,7 +3211,7 @@
         <v>81</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2962,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>89</v>
@@ -2971,7 +3228,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>90</v>
@@ -2980,7 +3237,7 @@
         <v>81</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2988,7 +3245,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>91</v>
@@ -2997,7 +3254,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>92</v>
@@ -3014,7 +3271,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>71</v>
@@ -3023,10 +3280,10 @@
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>81</v>
@@ -3050,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J10"/>
@@ -3111,7 +3368,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>46</v>
@@ -3120,19 +3377,19 @@
         <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3143,7 +3400,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>46</v>
@@ -3152,19 +3409,19 @@
         <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
@@ -3175,7 +3432,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>46</v>
@@ -3184,19 +3441,19 @@
         <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3204,31 +3461,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3236,28 +3493,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3265,28 +3522,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3294,28 +3551,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3323,28 +3580,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3352,7 +3609,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>71</v>
@@ -3361,19 +3618,19 @@
         <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3390,12 +3647,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -3451,7 +3708,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>46</v>
@@ -3460,19 +3717,19 @@
         <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3483,7 +3740,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>46</v>
@@ -3492,19 +3749,19 @@
         <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
@@ -3515,7 +3772,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>46</v>
@@ -3524,19 +3781,19 @@
         <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3544,31 +3801,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3576,28 +3833,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3605,28 +3862,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3634,28 +3891,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3663,28 +3920,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3692,7 +3949,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>71</v>
@@ -3701,19 +3958,19 @@
         <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3730,13 +3987,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3783,25 +4040,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3811,20 +4068,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/API接口测试/day4/api接口框架/data/cases2.xlsx
+++ b/API接口测试/day4/api接口框架/data/cases2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="168">
   <si>
     <t>case_id</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>[["$..msg", "assertEqual", "</t>
     </r>
     <r>
@@ -657,6 +663,18 @@
     <t>{"X-Lemonban-Media-Type":"lemonban.v2", "Authorization": "Bearer #investor_token#"}</t>
   </si>
   <si>
+    <t>{
+    "code": 1,
+     "msg": "投资金额为空"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "投资金额必须大于100，并且可以被100整除"
+}</t>
+  </si>
+  <si>
     <t>{"X-Lemonban-Media-Type":"lemonban.v2","Authorization": "Bearer #investor_token#"}</t>
   </si>
   <si>
@@ -674,10 +692,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -724,16 +742,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,6 +778,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -769,11 +801,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,23 +856,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,7 +885,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,25 +939,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +963,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,25 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,13 +1005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,37 +1035,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,13 +1059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,6 +1099,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,15 +1177,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1173,10 +1191,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1185,16 +1203,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -1203,115 +1221,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,6 +1339,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1344,9 +1365,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2602,10 +2620,10 @@
       <c r="G3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2660,10 +2678,10 @@
       <c r="G5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2689,10 +2707,10 @@
       <c r="G6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2791,46 +2809,46 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="54" spans="1:8">
-      <c r="A2" s="8">
+    <row r="2" s="9" customFormat="1" ht="54" spans="1:8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="54" spans="1:8">
-      <c r="A3" s="9">
+    <row r="3" s="10" customFormat="1" ht="54" spans="1:8">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>99</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -2839,24 +2857,24 @@
       <c r="G3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="67.5" spans="1:8">
-      <c r="A4" s="9">
+    <row r="4" s="10" customFormat="1" ht="67.5" spans="1:8">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>99</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -2886,164 +2904,164 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="8.89166666666667" style="4"/>
-    <col min="2" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.1083333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.89166666666667" style="4"/>
-    <col min="5" max="5" width="11.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="46.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="58" style="4" customWidth="1"/>
-    <col min="8" max="8" width="71.225" style="4" customWidth="1"/>
-    <col min="9" max="9" width="35.1083333333333" style="4" customWidth="1"/>
-    <col min="10" max="10" width="40.1083333333333" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.89166666666667" style="4"/>
+    <col min="1" max="1" width="8.89166666666667" style="5"/>
+    <col min="2" max="2" width="11" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.1083333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.89166666666667" style="5"/>
+    <col min="5" max="5" width="11.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="46.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="58" style="5" customWidth="1"/>
+    <col min="8" max="8" width="71.225" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.1083333333333" style="5" customWidth="1"/>
+    <col min="10" max="10" width="40.1083333333333" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.89166666666667" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:9">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:9">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" ht="62" customHeight="1" spans="1:9">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" ht="93" customHeight="1" spans="1:9">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3184,7 +3202,7 @@
       <c r="G4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3210,7 +3228,7 @@
       <c r="G5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3236,7 +3254,7 @@
       <c r="G6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3262,7 +3280,7 @@
       <c r="G7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3312,7 +3330,7 @@
   <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3650,10 +3668,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -3662,13 +3680,14 @@
     <col min="4" max="4" width="12.1083333333333" customWidth="1"/>
     <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="65.1083333333333" customWidth="1"/>
-    <col min="7" max="7" width="81.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="61.5583333333333" customWidth="1"/>
-    <col min="9" max="9" width="31.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="55.775" customWidth="1"/>
+    <col min="7" max="7" width="87.5" customWidth="1"/>
+    <col min="8" max="8" width="48.5" customWidth="1"/>
+    <col min="9" max="9" width="61.5583333333333" customWidth="1"/>
+    <col min="10" max="10" width="31.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="60.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3694,13 +3713,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="54" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3722,17 +3744,20 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" ht="54" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3754,17 +3779,20 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:10">
+    <row r="4" customFormat="1" ht="54" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3786,17 +3814,20 @@
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" ht="54" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3818,17 +3849,20 @@
       <c r="G5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" ht="54" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3850,14 +3884,17 @@
       <c r="G6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" ht="54" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3879,14 +3916,17 @@
       <c r="G7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" ht="67.5" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3908,14 +3948,17 @@
       <c r="G8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" ht="67.5" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3937,14 +3980,17 @@
       <c r="G9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" ht="54" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3964,12 +4010,15 @@
         <v>157</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3992,7 +4041,7 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -4043,7 +4092,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>142</v>
@@ -4052,13 +4101,13 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>160</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/API接口测试/day4/api接口框架/data/cases2.xlsx
+++ b/API接口测试/day4/api接口框架/data/cases2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="172">
   <si>
     <t>case_id</t>
   </si>
@@ -73,6 +73,12 @@
     <t>{"X-Lemonban-Media-Type":"lemonban.v2"}</t>
   </si>
   <si>
+    <t>{
+ "code": 1,
+ "msg": "手机号为空"
+}</t>
+  </si>
+  <si>
     <t>[["$..code", "assertEqual", 1]]</t>
   </si>
   <si>
@@ -82,7 +88,13 @@
     <t>手机号长度不足11位</t>
   </si>
   <si>
-    <t>{"mobile_phone":"1371234123","pwd":"12345678"}</t>
+    <t>{"mobile_phone":"1827071737","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "无效的手机格式"
+}</t>
   </si>
   <si>
     <t>[["$..code", "assertEqual", 2]]</t>
@@ -94,7 +106,7 @@
     <t>手机号长度超过11位</t>
   </si>
   <si>
-    <t>{"mobile_phone":"137123412345","pwd":"12345678","regname":"yuz"}</t>
+    <t>{"mobile_phone":"182707173790","pwd":"12345678","regname":"yuz"}</t>
   </si>
   <si>
     <t>手机号包含非数字</t>
@@ -115,6 +127,12 @@
     <t>{"mobile_phone":"13712341234","pwd":"","regname":"yuz"}</t>
   </si>
   <si>
+    <t>{
+    "code": 1,
+    "msg": "密码为空"
+}</t>
+  </si>
+  <si>
     <t>{'code': 1, 'msg': '密码为空', 'data': None, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
   </si>
   <si>
@@ -124,6 +142,12 @@
     <t>{"mobile_phone":"13712341234","pwd":"1234","regname":"yuz"}</t>
   </si>
   <si>
+    <t>{
+    "code": 2,
+    "msg": "密码格式为8到16位"
+}</t>
+  </si>
+  <si>
     <t>{'code': 2, 'msg': '密码格式为8到16位', 'data': None, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}</t>
   </si>
   <si>
@@ -136,7 +160,13 @@
     <t>注册成功</t>
   </si>
   <si>
-    <t>{"mobile_phone":"#new_phone#","pwd":"12345678","regname":"yuz"}</t>
+    <t>{"mobile_phone":"#mobile_phone#","pwd":"12345678","regname":"yuz"}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "OK"
+}</t>
   </si>
   <si>
     <t>[["$..code", "assertEqual", 0]]</t>
@@ -146,6 +176,12 @@
   </si>
   <si>
     <t>{"mobile_phone":"13712341234","pwd":"12345678","regname":"yuz"}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "账号已存在"
+}</t>
   </si>
   <si>
     <t>params</t>
@@ -190,12 +226,6 @@
     <t>{"mobile_phone":"137123412av","pwd":"123456"}</t>
   </si>
   <si>
-    <t>{
-    "code": 2,
-    "msg": "无效的手机格式"
-}</t>
-  </si>
-  <si>
     <t>无效的手机格式</t>
   </si>
   <si>
@@ -235,12 +265,6 @@
     <t>{"mobile_phone":"#investor_phone#","pwd":""}</t>
   </si>
   <si>
-    <t>{
-    "code": 1,
-    "msg": "密码为空"
-}</t>
-  </si>
-  <si>
     <t>[["$..msg", "assertEqual", "密码为空"]]</t>
   </si>
   <si>
@@ -256,12 +280,6 @@
     <t>{"mobile_phone":"#investor_phone#","pwd":"#investor_pwd#"}</t>
   </si>
   <si>
-    <t>{
-    "code": 0,
-    "msg": "OK"
-}</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -325,7 +343,7 @@
     <t>[["$..code", "assertEqual", 1007]]</t>
   </si>
   <si>
-    <t>{"member_id":"#member_id#","amount":100}</t>
+    <t>{"member_id":"#member_id#","amount":10000}</t>
   </si>
   <si>
     <t>{"code": 0, "msg": "OK"}</t>
@@ -350,6 +368,9 @@
   </si>
   <si>
     <t>取正确值</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","amount":100}</t>
   </si>
   <si>
     <t>取负数</t>
@@ -692,10 +713,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -729,6 +750,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -743,28 +771,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,9 +793,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,13 +805,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -825,16 +832,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,6 +871,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF09885A"/>
       <name val="宋体"/>
@@ -879,7 +900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,18 +918,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -921,25 +930,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,43 +990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,13 +1014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,25 +1032,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,7 +1074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,15 +1124,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1132,6 +1144,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1191,10 +1212,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1203,133 +1224,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1372,11 +1393,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1699,8 +1720,8 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1748,7 +1769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:11">
+    <row r="2" ht="76" customHeight="1" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1773,17 +1794,17 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
+      <c r="I2" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1794,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -1803,22 +1824,22 @@
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1">
-        <v>2</v>
+      <c r="I3" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1829,7 +1850,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -1838,22 +1859,22 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1">
-        <v>2</v>
+      <c r="I4" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1864,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -1873,22 +1894,22 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1">
-        <v>2</v>
+      <c r="I5" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1899,7 +1920,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -1908,22 +1929,22 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1">
-        <v>2</v>
+      <c r="I6" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1934,7 +1955,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -1943,22 +1964,22 @@
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
+      <c r="I7" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1969,31 +1990,31 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1">
-        <v>2</v>
+      <c r="I8" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2004,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -2013,22 +2034,22 @@
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1">
-        <v>2</v>
+      <c r="I9" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2039,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -2048,19 +2069,19 @@
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="I10" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2071,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -2080,16 +2101,16 @@
         <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="I11">
-        <v>2</v>
+      <c r="I11" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2180,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -2168,13 +2189,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:12">
@@ -2182,35 +2203,35 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>49</v>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:12">
@@ -2218,35 +2239,35 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>54</v>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:12">
@@ -2254,35 +2275,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>54</v>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:12">
@@ -2290,35 +2311,35 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>54</v>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:12">
@@ -2326,35 +2347,35 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>54</v>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:12">
@@ -2362,35 +2383,35 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>63</v>
+      <c r="I7" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="54" spans="1:12">
@@ -2398,35 +2419,35 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>67</v>
+      <c r="I8" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:12">
@@ -2434,35 +2455,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>63</v>
+      <c r="I9" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" ht="54" spans="1:12">
@@ -2470,35 +2491,35 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>73</v>
+      <c r="I10" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2523,8 +2544,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2563,10 +2584,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2574,28 +2595,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2603,28 +2624,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2632,28 +2653,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2661,28 +2682,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2690,28 +2711,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2719,28 +2740,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2763,7 +2784,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2803,10 +2824,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" s="9" customFormat="1" ht="54" spans="1:8">
@@ -2814,25 +2835,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" s="10" customFormat="1" ht="54" spans="1:8">
@@ -2840,25 +2861,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" ht="67.5" spans="1:8">
@@ -2866,25 +2887,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2943,10 +2964,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:9">
@@ -2954,28 +2975,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:9">
@@ -2983,28 +3004,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" ht="62" customHeight="1" spans="1:9">
@@ -3012,28 +3033,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" ht="93" customHeight="1" spans="1:9">
@@ -3041,28 +3062,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3122,7 +3143,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3130,28 +3151,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3159,25 +3180,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:8">
@@ -3185,25 +3206,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:8">
@@ -3211,25 +3232,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3237,25 +3258,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3263,25 +3284,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="93" customHeight="1" spans="1:8">
@@ -3289,25 +3310,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3372,10 +3393,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3383,31 +3404,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3415,31 +3436,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
@@ -3447,31 +3468,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3479,31 +3500,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3511,28 +3532,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3540,28 +3561,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3569,28 +3590,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3598,28 +3619,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3627,28 +3648,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +3691,7 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -3713,13 +3734,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:11">
@@ -3727,34 +3748,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:11">
@@ -3762,34 +3783,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="54" spans="1:11">
@@ -3797,34 +3818,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:11">
@@ -3832,34 +3853,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:10">
@@ -3867,31 +3888,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:10">
@@ -3899,31 +3920,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:10">
@@ -3931,31 +3952,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:10">
@@ -3963,31 +3984,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" ht="54" spans="1:10">
@@ -3995,31 +4016,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4081,7 +4102,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4089,25 +4110,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
